--- a/Code/GEMs/bphA.xlsx
+++ b/Code/GEMs/bphA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\MATLAB\iGEM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_CE3856FF03DEB8E4AEB2490BECB29260711E4645" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A7F31565-FECE-4E73-873E-809C46F31406}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_CE3856FF03DEB8E4AEB2490BECB29260711E4645" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C94A0B39-5707-4EB4-A69B-1E283F29030A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-996" yWindow="1200" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -205,63 +205,6 @@
     <t>c//c//c//c//c//c</t>
   </si>
   <si>
-    <t>2,2*-dichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*-dichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,5-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,5-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,6-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,6-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,3*,4-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,3*,4-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,3*,4-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,3*,4-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,3*,5-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,3*,5-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,3*,6-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,3*,6-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,4,4*-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,4,4*-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,4,4*-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,4,4*-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,4*,5-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,4*,5-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,4*,6-trichlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,4*,6-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4,4*-tetrachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4,4*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4,5*-tetrachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4,5*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4,6-tetrachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4,6-tetrachloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4,6*-tetrachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4,6*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,3*,4,5*-tetrachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,3*,4,5*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
-    <t>2,2*,4,4*,6-pentachlorobiphenyl[c] + H+[c] + NADH[c] + oxygen[c] &lt;=&gt; 2,2*,4,4*,6-pentachloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + NAD[c]</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -290,6 +233,63 @@
   </si>
   <si>
     <t>2,2*-dichlorobiphenyl</t>
+  </si>
+  <si>
+    <t>2,2*-dichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*-dichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4-trichlorobiphenyl[c] + 2 H+[c] + 2NADH[c] + 2oxygen[c] &lt;=&gt; 2,2*,4-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,5-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,5-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,6-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,6-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,3*,4-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,3*,4-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,3*,4-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,3*,4-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,3*,5-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,3*,5-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,3*,6-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,3*,6-trichloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,4,4*-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,4,4*-trichloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,4,4*-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,4,4*-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,4*,5-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,4*,5-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,4*,6-trichlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,4*,6-trichloro-2*,3*-dihydro-2*,3*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4,4*-tetrachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4,4*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4,5*-tetrachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4,5*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4,6-tetrachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4,6-tetrachloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4,6*-tetrachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4,6*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,3*,4,5*-tetrachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,3*,4,5*-tetrachloro-5,6-dihydro-5,6-dihydroxybiphenyl[c] + 2 NAD[c]</t>
+  </si>
+  <si>
+    <t>2,2*,4,4*,6-pentachlorobiphenyl[c] + 2 H+[c] + 2 NADH[c] + 2 oxygen[c] &lt;=&gt; 2,2*,4,4*,6-pentachloro-5*,6*-dihydro-5*,6*-dihydroxybiphenyl[c] + 2 NAD[c]</t>
   </si>
 </sst>
 </file>
@@ -377,10 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,15 +700,15 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="96.88671875" customWidth="1"/>
+    <col min="5" max="5" width="129.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.33203125" customWidth="1"/>
     <col min="7" max="7" width="32.88671875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -718,40 +718,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -761,10 +761,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L2" s="6">
         <v>1000</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L3" s="6">
         <v>1000</v>
@@ -827,8 +827,8 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -843,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L4" s="6">
         <v>1000</v>
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
@@ -875,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L5" s="6">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L6" s="6">
         <v>1000</v>
@@ -924,7 +924,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L7" s="6">
         <v>1000</v>
@@ -956,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L8" s="6">
         <v>1000</v>
@@ -987,8 +987,8 @@
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>68</v>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>27</v>
@@ -1003,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L9" s="6">
         <v>1000</v>
@@ -1019,8 +1019,8 @@
       <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>69</v>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>30</v>
@@ -1035,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L10" s="6">
         <v>1000</v>
@@ -1051,8 +1051,8 @@
       <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L11" s="6">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>35</v>
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L12" s="6">
         <v>1000</v>
@@ -1115,8 +1115,8 @@
       <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>72</v>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>38</v>
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L13" s="6">
         <v>1000</v>
@@ -1147,8 +1147,8 @@
       <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>41</v>
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L14" s="6">
         <v>1000</v>
@@ -1179,8 +1179,8 @@
       <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L15" s="6">
         <v>1000</v>
@@ -1211,8 +1211,8 @@
       <c r="D16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>75</v>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>47</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L16" s="6">
         <v>1000</v>
@@ -1244,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>50</v>
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="K17" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L17" s="6">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>53</v>
@@ -1291,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L18" s="6">
         <v>1000</v>
@@ -1307,8 +1307,8 @@
       <c r="D19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>56</v>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L19" s="6">
         <v>1000</v>
@@ -1339,8 +1339,8 @@
       <c r="D20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>79</v>
+      <c r="E20" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>59</v>
@@ -1355,14 +1355,14 @@
         <v>7</v>
       </c>
       <c r="K20" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L20" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="10"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
